--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-06_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-06_beg.xlsx
@@ -1616,7 +1616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “Doctor.”
+    <t xml:space="preserve">[name="Kal'tsit"]  'Doctor.'
 </t>
   </si>
   <si>
@@ -1724,7 +1724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Our enemy here may be of the “purest” Sarkaz. These are techniques not known to any modern country, passed down only among ancient Sarkaz and Sargonian nomads.
+    <t xml:space="preserve">[name="Kal'tsit"]  Our enemy here may be of the 'purest' Sarkaz. These are techniques not known to any modern country, passed down only among ancient Sarkaz and Sargonian nomads.
 </t>
   </si>
   <si>
@@ -1748,7 +1748,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  “Cannibalism.”
+    <t xml:space="preserve">[name="Kal'tsit"]  'Cannibalism.'
 </t>
   </si>
   <si>
@@ -1756,7 +1756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s not surprising that the device at the center of the ritual is called an altar, considering how horrifically destructive it is. That the uninitiated refer to this as “witchcraft.”
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s not surprising that the device at the center of the ritual is called an altar, considering how horrifically destructive it is. That the uninitiated refer to this as 'witchcraft.'
 </t>
   </si>
   <si>
@@ -1812,7 +1812,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Reunion may very well rely on “hubs” in “neural networks” to operate as a single unit on a large scale.
+    <t xml:space="preserve">[name="Kal'tsit"]  Reunion may very well rely on 'hubs' in 'neural networks' to operate as a single unit on a large scale.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-06_beg.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_07-06_beg.xlsx
@@ -1328,7 +1328,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Phantom Crossbowmen, I’m glad to see you’ve returned safely.
+    <t xml:space="preserve">[name="Talulah"]  Phantom Crossbowmen, I'm glad to see you've returned safely.
 </t>
   </si>
   <si>
@@ -1340,11 +1340,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  I didn’t think we’d meet you here.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  We can save a lot of lives making full use of Chernobog’s resources . This core city will be our final weapon to breach Lungmen.
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  I didn't think we'd meet you here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  We can save a lot of lives making full use of Chernobog's resources . This core city will be our final weapon to breach Lungmen.
 </t>
   </si>
   <si>
@@ -1360,7 +1360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  No, he’s right.
+    <t xml:space="preserve">[name="Talulah"]  No, he's right.
 </t>
   </si>
   <si>
@@ -1380,7 +1380,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Hmm... The person you’re carrying... Mephisto? Is he...
+    <t xml:space="preserve">[name="Talulah"]  Hmm... The person you're carrying... Mephisto? Is he...
 </t>
   </si>
   <si>
@@ -1388,11 +1388,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Faust sacrificed himself to save him, didn’t he?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  ...That’s right, Leader. With no regard for his own life, Faust used his Arts to cover our tracks and give us a chance to escape.
+    <t xml:space="preserve">[name="Talulah"]  Faust sacrificed himself to save him, didn't he?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  ...That's right, Leader. With no regard for his own life, Faust used his Arts to cover our tracks and give us a chance to escape.
 </t>
   </si>
   <si>
@@ -1412,11 +1412,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  Another thing, Leader... We lost contact with Crownslayer early on. We haven’t heard anything from her. Don’t know where she might have ended up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Phantom Crossbowman"]  As for... Yeti Squad, and FrostNova, they... they’re all...
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  Another thing, Leader... We lost contact with Crownslayer early on. We haven't heard anything from her. Don't know where she might have ended up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Phantom Crossbowman"]  As for... Yeti Squad, and FrostNova, they... they're all...
 </t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  Could they be hiding something, or have they been digging around? Their team must know something I don’t.
+    <t xml:space="preserve">[name="Talulah"]  Could they be hiding something, or have they been digging around? Their team must know something I don't.
 </t>
   </si>
   <si>
@@ -1456,7 +1456,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"]  But then, this isn’t so strange either.
+    <t xml:space="preserve">[name="Talulah"]  But then, this isn't so strange either.
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Looks like the core city is back up to speed. It didn’t stop for long.
+    <t xml:space="preserve">[name="Amiya"]  Looks like the core city is back up to speed. It didn't stop for long.
 </t>
   </si>
   <si>
@@ -1504,7 +1504,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We can expect the city to make a few more stops along the way until the enemy commander decides to announce her plan. Then she’ll stop taking in Infected refugees.
+    <t xml:space="preserve">[name="Kal'tsit"]  We can expect the city to make a few more stops along the way until the enemy commander decides to announce her plan. Then she'll stop taking in Infected refugees.
 </t>
   </si>
   <si>
@@ -1516,15 +1516,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Hm.. we’re already very close to the center of the core city.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  There are a lot of passages above and below us that seem like they were part of the city’s transit system. After the Catastrophe, everything stopped working.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  That does mean it's impossible for the city to function, and even move…? Could this be the underground structure Dr. Kal'tsit was talking about?
+    <t xml:space="preserve">[name="Amiya"]  Hm.. we're already very close to the center of the core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  There are a lot of passages above and below us that seem like they were part of the city's transit system. After the Catastrophe, everything stopped working.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  That does mean it's impossible for the city to function, and even move...? Could this be the underground structure Dr. Kal'tsit was talking about?
 </t>
   </si>
   <si>
@@ -1532,7 +1532,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  We haven’t seen much resistance since entering the core city. But once we proceed to the central district, we should expect to run into a lot more Reunion forces.
+    <t xml:space="preserve">[name="Amiya"]  We haven't seen much resistance since entering the core city. But once we proceed to the central district, we should expect to run into a lot more Reunion forces.
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Raidian is leading the recon team for this operation, as one of Rhodes Island’s communications specialists.
+    <t xml:space="preserve">[name="Kal'tsit"]  Raidian is leading the recon team for this operation, as one of Rhodes Island's communications specialists.
 </t>
   </si>
   <si>
@@ -1556,11 +1556,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Even here in the core city, we’ll be able to communicate with the other teams. That’s because of their hard work.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="I didn’t see them...", values="1")]
+    <t xml:space="preserve">[name="Kal'tsit"]  Even here in the core city, we'll be able to communicate with the other teams. That's because of their hard work.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I didn't see them...", values="1")]
 </t>
   </si>
   <si>
@@ -1576,11 +1576,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Raidian isn’t as skilled in combat as the other two elite operators, but she is a unique talent at Rhodes Island when it comes to directly influencing the course of a battle.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  We’ve got three teams engaging in this assault operation. We don’t need Raidian to trouble herself with combat.
+    <t xml:space="preserve">[name="Kal'tsit"]  Raidian isn't as skilled in combat as the other two elite operators, but she is a unique talent at Rhodes Island when it comes to directly influencing the course of a battle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We've got three teams engaging in this assault operation. We don't need Raidian to trouble herself with combat.
 </t>
   </si>
   <si>
@@ -1588,11 +1588,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Explain it to me.;......;So you’re not going to tell me what it is?", values="1;2;3")]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s enough to know that they’re necessary. You’ll know the details soon enough.
+    <t xml:space="preserve">[Decision(options="Explain it to me.;......;So you're not going to tell me what it is?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It's enough to know that they're necessary. You'll know the details soon enough.
 </t>
   </si>
   <si>
@@ -1612,7 +1612,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Heh. I’m pretty sure you get it all...
+    <t xml:space="preserve">[name="Kal'tsit"]  Heh. I'm pretty sure you get it all...
 </t>
   </si>
   <si>
@@ -1632,11 +1632,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Rosmontis"]  ...Ironclad. And they’re moving.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Reunion’s... guard team. Let’s avoid them and find another way...
+    <t xml:space="preserve">[name="Rosmontis"]  ...Ironclad. And they're moving.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Reunion's... guard team. Let's avoid them and find another way...
 </t>
   </si>
   <si>
@@ -1648,11 +1648,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  Careful. Can’t you feel it?
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Careful. Can't you feel it?
 </t>
   </si>
   <si>
@@ -1660,19 +1660,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  ...It couldn’t be... Rosmontis? Are you feeling any anomalies? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Rosmontis"]  Hm...? No. I don’t think so.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  This is beyond Rosmontis’s Arts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  You can’t rely entirely on emotions, Amiya. There is more to feel than feelings alone. When you run your fingers through a head of hair, the first thing you feel is neither longing nor joy. It’s something more base than that.
+    <t xml:space="preserve">[name="Amiya"]  ...It couldn't be... Rosmontis? Are you feeling any anomalies? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Hm...? No. I don't think so.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  This is beyond Rosmontis's Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You can't rely entirely on emotions, Amiya. There is more to feel than feelings alone. When you run your fingers through a head of hair, the first thing you feel is neither longing nor joy. It's something more base than that.
 </t>
   </si>
   <si>
@@ -1684,11 +1684,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Then I’ll try, Dr. Kal’tsit.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Nnh... There’s a sliver of... energy. And a strong scent in the air, like...
+    <t xml:space="preserve">[name="Amiya"]  Then I'll try, Dr. Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Nnh... There's a sliver of... energy. And a strong scent in the air, like...
 </t>
   </si>
   <si>
@@ -1696,15 +1696,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  No, this isn’t a real corpse. Could it be...? No. Oh? Why...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...It’s Sarkaz. Sarkaz Arts. Thick with the smell of death... A ritual...?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s an ancient ritual that runs itself after taking shape.
+    <t xml:space="preserve">[name="Amiya"]  No, this isn't a real corpse. Could it be...? No. Oh? Why...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...It's Sarkaz. Sarkaz Arts. Thick with the smell of death... A ritual...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It's an ancient ritual that runs itself after taking shape.
 </t>
   </si>
   <si>
@@ -1716,7 +1716,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  They are. This is very unusual. The Sarkaz we know today can’t perform Arts like these.
+    <t xml:space="preserve">[name="Amiya"]  They are. This is very unusual. The Sarkaz we know today can't perform Arts like these.
 </t>
   </si>
   <si>
@@ -1728,7 +1728,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  ...The ritual relies on Oripathy infection, and the caster’s peculiar understanding of Originium.
+    <t xml:space="preserve">[name="Amiya"]  ...The ritual relies on Oripathy infection, and the caster's peculiar understanding of Originium.
 </t>
   </si>
   <si>
@@ -1736,15 +1736,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  I can’t even imagine how the potent tempest at the center of the ritual would affect a living being.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  It wouldn’t know the difference between friend or foe... any living thing would be slowly pulled apart by the waves of energy.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  It doesn’t seem useful for modern combat. The cost far outweighs any potential gain.
+    <t xml:space="preserve">[name="Amiya"]  I can't even imagine how the potent tempest at the center of the ritual would affect a living being.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It wouldn't know the difference between friend or foe... any living thing would be slowly pulled apart by the waves of energy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It doesn't seem useful for modern combat. The cost far outweighs any potential gain.
 </t>
   </si>
   <si>
@@ -1752,23 +1752,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The phrasing may seem alarmist, but that’s how this ritual is called.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s not surprising that the device at the center of the ritual is called an altar, considering how horrifically destructive it is. That the uninitiated refer to this as 'witchcraft.'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  I... I don’t think ordinary Sarkaz mercenaries know how to use these kinds of Arts.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  You would have to have extensive Arts knowledge and combat experience from Kazdel to be able to pull off this ritual. And you wouldn’t actually need to be a caster.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  But he... he’s only a Kazdel Sarkaz. Not one of the descendants of the ancient Sarkaz still wandering around the world.
+    <t xml:space="preserve">[name="Kal'tsit"]  The phrasing may seem alarmist, but that's how this ritual is called.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It's not surprising that the device at the center of the ritual is called an altar, considering how horrifically destructive it is. That the uninitiated refer to this as 'witchcraft.'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I... I don't think ordinary Sarkaz mercenaries know how to use these kinds of Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  You would have to have extensive Arts knowledge and combat experience from Kazdel to be able to pull off this ritual. And you wouldn't actually need to be a caster.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But he... he's only a Kazdel Sarkaz. Not one of the descendants of the ancient Sarkaz still wandering around the world.
 </t>
   </si>
   <si>
@@ -1796,11 +1796,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  It’s almost as if it’s standing to once again challenge the other civilizations of this world, as the Sarkaz have plotted throughout history.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="It’s a metaphor.", values="1")]
+    <t xml:space="preserve">[name="Kal'tsit"]  It's almost as if it's standing to once again challenge the other civilizations of this world, as the Sarkaz have plotted throughout history.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="It's a metaphor.", values="1")]
 </t>
   </si>
   <si>
@@ -1808,7 +1808,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  The Reunion element guarding Chernobog is not a typical group. I’ve said as much already.
+    <t xml:space="preserve">[name="Kal'tsit"]  The Reunion element guarding Chernobog is not a typical group. I've said as much already.
 </t>
   </si>
   <si>
@@ -1816,7 +1816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  But for today’s purely push-strategy driven environment, Reunion would be something of an anomaly.
+    <t xml:space="preserve">[name="Kal'tsit"]  But for today's purely push-strategy driven environment, Reunion would be something of an anomaly.
 </t>
   </si>
   <si>
@@ -1844,19 +1844,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  They’re much more familiar with the terrain than we are. They would have mapped out all the paths long before we could... They must have had defenses in place before we even started our operation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  The only advantage we have is our intelligence. We know how they’re deployed, and they know nothing about us.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  ...So we move quickly to wipe out the enemies guarding this area. The faster we do it, the safer we’ll be. Don’t let them alert the other guards.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Don’t even think about an ambush. We can’t waste time here.
+    <t xml:space="preserve">[name="Amiya"]  They're much more familiar with the terrain than we are. They would have mapped out all the paths long before we could... They must have had defenses in place before we even started our operation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The only advantage we have is our intelligence. We know how they're deployed, and they know nothing about us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...So we move quickly to wipe out the enemies guarding this area. The faster we do it, the safer we'll be. Don't let them alert the other guards.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Don't even think about an ambush. We can't waste time here.
 </t>
   </si>
   <si>
@@ -1868,7 +1868,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit, look, I think, if...
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit, look, I think, if...
 </t>
   </si>
   <si>
@@ -1876,7 +1876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  If you don’t need my assistance, Dr. {@nickname}.
+    <t xml:space="preserve">[name="Kal'tsit"]  If you don't need my assistance, Dr. {@nickname}.
 </t>
   </si>
   <si>
@@ -1896,15 +1896,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Amiya"]  Rosmontis, we’re moving out!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  We’ll vacate the area after this battle and head to the core city surface!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Amiya"]  Rosmontis... at least it’ll be sunny.
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis, we're moving out!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  We'll vacate the area after this battle and head to the core city surface!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rosmontis... at least it'll be sunny.
 </t>
   </si>
   <si>
@@ -1920,35 +1920,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  (The rest is up to you, Dr. {@nickname}. I know you won’t let us down.)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kal'tsit, we won’t see that disappointment again.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You never step into the same river twice. There won’t be a second time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Even with the same person, the same thing... in a different time, we’ll have a different outcome. This world... will change.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You believe it, don’t you?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes... It makes sense that you wouldn’t.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">But I believe it. Dr. {@nickname}, a person like that... I know... if it wasn’t this time right now, Dr. {@nickname} would be different.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I’ve seen a lot, so very many... Even if everyone else won’t, I can understand.
+    <t xml:space="preserve">[name="Kal'tsit"]  (The rest is up to you, Dr. {@nickname}. I know you won't let us down.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kal'tsit, we won't see that disappointment again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You never step into the same river twice. There won't be a second time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even with the same person, the same thing... in a different time, we'll have a different outcome. This world... will change.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You believe it, don't you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes... It makes sense that you wouldn't.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">But I believe it. Dr. {@nickname}, a person like that... I know... if it wasn't this time right now, Dr. {@nickname} would be different.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've seen a lot, so very many... Even if everyone else won't, I can understand.
 </t>
   </si>
   <si>
@@ -1960,7 +1960,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal'tsit"]  (You can prove you’re not the Dr. {@nickname} that was stuck in the past.)
+    <t xml:space="preserve">[name="Kal'tsit"]  (You can prove you're not the Dr. {@nickname} that was stuck in the past.)
 </t>
   </si>
   <si>
